--- a/Import.xlsx
+++ b/Import.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
     <sheet name="role" sheetId="5" r:id="rId2"/>
     <sheet name="product" sheetId="2" r:id="rId3"/>
-    <sheet name="deliveri" sheetId="12" r:id="rId4"/>
-    <sheet name="categoryproduct" sheetId="11" r:id="rId5"/>
-    <sheet name="nameproduct" sheetId="10" r:id="rId6"/>
-    <sheet name="manufactyre" sheetId="9" r:id="rId7"/>
-    <sheet name="adres" sheetId="3" r:id="rId8"/>
-    <sheet name="street" sheetId="8" r:id="rId9"/>
-    <sheet name="index" sheetId="7" r:id="rId10"/>
-    <sheet name="city" sheetId="6" r:id="rId11"/>
-    <sheet name="order" sheetId="4" r:id="rId12"/>
-    <sheet name="orderproduct" sheetId="13" r:id="rId13"/>
-    <sheet name="statusorder" sheetId="14" r:id="rId14"/>
+    <sheet name="Articul" sheetId="15" r:id="rId4"/>
+    <sheet name="deliveri" sheetId="12" r:id="rId5"/>
+    <sheet name="categoryproduct" sheetId="11" r:id="rId6"/>
+    <sheet name="nameproduct" sheetId="10" r:id="rId7"/>
+    <sheet name="manufactyre" sheetId="9" r:id="rId8"/>
+    <sheet name="adres" sheetId="3" r:id="rId9"/>
+    <sheet name="street" sheetId="8" r:id="rId10"/>
+    <sheet name="index" sheetId="7" r:id="rId11"/>
+    <sheet name="city" sheetId="6" r:id="rId12"/>
+    <sheet name="order" sheetId="4" r:id="rId13"/>
+    <sheet name="orderproduct" sheetId="13" r:id="rId14"/>
+    <sheet name="statusorder" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="242">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -92,36 +93,24 @@
     <t>Клиент</t>
   </si>
   <si>
-    <t>Филимонов Роберт Васильевич</t>
-  </si>
-  <si>
     <t>loudittoimmolau1900@gmail.com</t>
   </si>
   <si>
     <t>LdNyos</t>
   </si>
   <si>
-    <t>Шилова Майя Артемьевна</t>
-  </si>
-  <si>
     <t>hittuprofassa4984@mail.com</t>
   </si>
   <si>
     <t>gynQMT</t>
   </si>
   <si>
-    <t>Чистякова Виктория Степановна</t>
-  </si>
-  <si>
     <t>freineiciweijau888@yandex.ru</t>
   </si>
   <si>
     <t>AtnDjr</t>
   </si>
   <si>
-    <t>Волкова Эмилия Артёмовна</t>
-  </si>
-  <si>
     <t>nokupekidda2001@gmail.com</t>
   </si>
   <si>
@@ -762,6 +751,15 @@
   </si>
   <si>
     <t>ArticleNum</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>IDArticul</t>
   </si>
 </sst>
 </file>
@@ -769,7 +767,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -855,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,7 +874,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -899,6 +897,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1210,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -1221,13 +1229,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -1248,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -1262,7 +1270,7 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="18">
         <f>LOOKUP(H3,role!$B$2:$B$4,role!$A$2:$A$4)</f>
         <v>1</v>
       </c>
@@ -1275,13 +1283,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -1302,13 +1310,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -1329,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -1356,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -1383,19 +1391,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G8">
         <f>LOOKUP(H8,role!$B$2:$B$4,role!$A$2:$A$4)</f>
@@ -1410,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <f>LOOKUP(H9,role!$B$2:$B$4,role!$A$2:$A$4)</f>
@@ -1437,19 +1445,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <f>LOOKUP(H10,role!$B$2:$B$4,role!$A$2:$A$4)</f>
@@ -1464,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <f>LOOKUP(H11,role!$B$2:$B$4,role!$A$2:$A$4)</f>
@@ -1487,26 +1495,295 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:H11">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>180</v>
       </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B31">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -1805,12 +2082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1820,10 +2097,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1831,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1839,12 +2116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" activeCellId="1" sqref="A2:A21 F2:F21"/>
+      <selection activeCell="A2" sqref="A2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1856,44 +2133,50 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="18" customWidth="1"/>
+    <col min="10" max="12" width="34" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="63">
+    <row r="1" spans="1:16" ht="63">
       <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75">
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1902,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8">
         <v>44693</v>
@@ -1911,7 +2194,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5">
         <v>15</v>
@@ -1919,15 +2202,18 @@
       <c r="H2" s="8">
         <v>44687</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="5">
         <v>601</v>
       </c>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1936,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8">
         <v>44693</v>
@@ -1945,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7">
         <v>15</v>
@@ -1953,15 +2239,18 @@
       <c r="H3" s="8">
         <v>44687</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="I3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="7">
         <v>602</v>
       </c>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75">
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1970,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="8">
         <v>44695</v>
@@ -1979,7 +2268,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7">
         <v>10</v>
@@ -1987,15 +2276,25 @@
       <c r="H4" s="8">
         <v>44689</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="17">
+        <f>LOOKUP(J4,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="5">
         <v>603</v>
       </c>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75">
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2004,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D5" s="8">
         <v>44695</v>
@@ -2013,7 +2312,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -2021,15 +2320,18 @@
       <c r="H5" s="8">
         <v>44689</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="7">
         <v>604</v>
       </c>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75">
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2038,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D6" s="8">
         <v>44697</v>
@@ -2047,7 +2349,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -2055,15 +2357,18 @@
       <c r="H6" s="8">
         <v>44691</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="5">
         <v>605</v>
       </c>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2072,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D7" s="8">
         <v>44698</v>
@@ -2081,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -2089,15 +2394,25 @@
       <c r="H7" s="8">
         <v>44692</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="17">
+        <f>LOOKUP(J7,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>7</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="7">
         <v>606</v>
       </c>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2106,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8">
         <v>44699</v>
@@ -2115,7 +2430,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7">
         <v>2</v>
@@ -2123,15 +2438,18 @@
       <c r="H8" s="8">
         <v>44693</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="5">
         <v>607</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75">
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2140,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="8">
         <v>44700</v>
@@ -2149,7 +2467,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2157,15 +2475,18 @@
       <c r="H9" s="8">
         <v>44694</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="7">
         <v>608</v>
       </c>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75">
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2174,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="8">
         <v>44702</v>
@@ -2183,7 +2504,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -2191,15 +2512,25 @@
       <c r="H10" s="8">
         <v>44696</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="17" t="e">
+        <f>LOOKUP(J10,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10" s="5">
         <v>609</v>
       </c>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75">
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2208,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="8">
         <v>44702</v>
@@ -2217,7 +2548,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -2225,15 +2556,25 @@
       <c r="H11" s="8">
         <v>44696</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I11" s="17">
+        <f>LOOKUP(J11,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>7</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="7">
         <v>610</v>
       </c>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2242,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="8">
         <v>44693</v>
@@ -2251,7 +2592,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -2259,15 +2600,18 @@
       <c r="H12" s="8">
         <v>44687</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="5">
         <v>601</v>
       </c>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75">
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2276,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="8">
         <v>44693</v>
@@ -2285,7 +2629,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7">
         <v>15</v>
@@ -2293,15 +2637,18 @@
       <c r="H13" s="8">
         <v>44687</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="7">
         <v>602</v>
       </c>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75">
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2310,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D14" s="8">
         <v>44695</v>
@@ -2319,7 +2666,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7">
         <v>10</v>
@@ -2327,15 +2674,25 @@
       <c r="H14" s="8">
         <v>44689</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I14" s="17">
+        <f>LOOKUP(J14,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="5">
         <v>603</v>
       </c>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75">
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2344,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D15" s="8">
         <v>44695</v>
@@ -2353,7 +2710,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -2361,15 +2718,18 @@
       <c r="H15" s="8">
         <v>44689</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="7">
         <v>604</v>
       </c>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2378,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D16" s="8">
         <v>44697</v>
@@ -2387,7 +2747,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7">
         <v>10</v>
@@ -2395,15 +2755,18 @@
       <c r="H16" s="8">
         <v>44691</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="5">
         <v>605</v>
       </c>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75">
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2412,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D17" s="8">
         <v>44698</v>
@@ -2421,7 +2784,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -2429,15 +2792,25 @@
       <c r="H17" s="8">
         <v>44692</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="I17" s="17">
+        <f>LOOKUP(J17,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>7</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="7">
         <v>606</v>
       </c>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75">
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2446,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D18" s="8">
         <v>44699</v>
@@ -2455,7 +2828,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
@@ -2463,15 +2836,18 @@
       <c r="H18" s="8">
         <v>44693</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="5">
         <v>607</v>
       </c>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75">
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2480,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" s="8">
         <v>44700</v>
@@ -2489,7 +2865,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -2497,15 +2873,18 @@
       <c r="H19" s="8">
         <v>44694</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="7">
         <v>608</v>
       </c>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75">
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2514,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D20" s="8">
         <v>44702</v>
@@ -2523,7 +2902,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -2531,15 +2910,25 @@
       <c r="H20" s="8">
         <v>44696</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="I20" s="17" t="e">
+        <f>LOOKUP(J20,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" s="5">
         <v>609</v>
       </c>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75">
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2548,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D21" s="8">
         <v>44702</v>
@@ -2557,7 +2946,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -2565,13 +2954,23 @@
       <c r="H21" s="8">
         <v>44696</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I21" s="17">
+        <f>LOOKUP(J21,user!$B$2:$B$11,user!$A$2:$A$11)</f>
+        <v>7</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" s="7">
         <v>610</v>
       </c>
-      <c r="M21" s="15"/>
+      <c r="P21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2594,10 +2993,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -2605,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -2613,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -2621,7 +3020,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -2629,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -2637,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -2645,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
@@ -2653,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -2661,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -2669,7 +3068,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
@@ -2677,7 +3076,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -2685,7 +3084,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
@@ -2693,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
@@ -2701,7 +3100,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
@@ -2709,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
@@ -2717,7 +3116,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
@@ -2725,7 +3124,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
@@ -2733,7 +3132,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75">
@@ -2741,7 +3140,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
@@ -2749,7 +3148,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
@@ -2757,7 +3156,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2765,22 +3164,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -2788,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -2796,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2812,17 +3211,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -2859,1786 +3258,1909 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="94.5">
+    <row r="1" spans="1:18" ht="94.5">
       <c r="A1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="31.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>LOOKUP(C2,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5">
+        <f>LOOKUP(E2,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="5">
+        <f>LOOKUP(H2,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="5">
+        <f>LOOKUP(K2,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="5">
+        <v>123</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="31.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="P2" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>LOOKUP(R2,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5">
-        <f>LOOKUP(D2,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="5">
-        <f>LOOKUP(G2,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="5">
-        <f>LOOKUP(J2,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="5">
-        <v>123</v>
-      </c>
-      <c r="L2" s="5">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5">
-        <v>6</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="5">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5">
-        <f>LOOKUP(Q2,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="31.5">
+    </row>
+    <row r="3" spans="1:18" ht="31.5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3">
+        <f>LOOKUP(C3,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5">
+        <f>LOOKUP(E3,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5">
+        <f>LOOKUP(H3,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5">
-        <f>LOOKUP(D3,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="5">
-        <f>LOOKUP(G3,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5">
-        <f>LOOKUP(J3,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LOOKUP(K3,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="K3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5">
         <v>149</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>7</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="O3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="5">
         <v>15</v>
       </c>
-      <c r="P3" s="5">
-        <f>LOOKUP(Q3,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q3" s="5">
+        <f>LOOKUP(R3,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="31.5">
+      <c r="R3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="31.5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4">
+        <f>LOOKUP(C4,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5">
+        <f>LOOKUP(E4,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5">
+        <f>LOOKUP(H4,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5">
-        <f>LOOKUP(D4,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="5">
-        <f>LOOKUP(G4,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+      <c r="J4" s="5">
+        <f>LOOKUP(K4,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1200</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>15</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>LOOKUP(R4,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="5">
-        <f>LOOKUP(J4,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1200</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5">
-        <v>15</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="5">
-        <v>10</v>
-      </c>
-      <c r="P4" s="5">
-        <f>LOOKUP(Q4,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="31.5">
+      <c r="R4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="31.5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5">
+        <f>LOOKUP(C5,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>29</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5">
+        <f>LOOKUP(E5,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5">
+        <f>LOOKUP(H5,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="5">
-        <f>LOOKUP(D5,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="5">
-        <f>LOOKUP(G5,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="5">
-        <f>LOOKUP(J5,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+      <c r="J5" s="5">
+        <f>LOOKUP(K5,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="K5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="5">
         <v>86</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>4</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>17</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="O5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="5">
         <v>5</v>
       </c>
-      <c r="P5" s="5">
-        <f>LOOKUP(Q5,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.5">
+      <c r="Q5" s="5">
+        <f>LOOKUP(R5,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="31.5">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="5">
-        <f>LOOKUP(D6,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B6">
+        <f>LOOKUP(C6,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="5">
+        <f>LOOKUP(E6,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="5">
-        <f>LOOKUP(G6,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="5">
+        <f>LOOKUP(H6,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="5">
-        <f>LOOKUP(J6,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="5">
+        <f>LOOKUP(K6,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>9</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="K6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="5">
         <v>166</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>18</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="O6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="5">
         <v>15</v>
       </c>
-      <c r="P6" s="5">
-        <f>LOOKUP(Q6,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="31.5">
+      <c r="Q6" s="5">
+        <f>LOOKUP(R6,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="31.5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="5">
-        <f>LOOKUP(D7,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B7">
+        <f>LOOKUP(C7,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5">
+        <f>LOOKUP(E7,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="5">
-        <f>LOOKUP(G7,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>55</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="5">
+        <f>LOOKUP(H7,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="5">
-        <f>LOOKUP(J7,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="5">
+        <f>LOOKUP(K7,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="K7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="5">
         <v>1700</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="O7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="5">
         <v>25</v>
       </c>
-      <c r="P7" s="5">
-        <f>LOOKUP(Q7,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q7" s="5">
+        <f>LOOKUP(R7,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="31.5">
+      <c r="R7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="31.5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8">
+        <f>LOOKUP(C8,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5">
+        <f>LOOKUP(E8,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="5">
+        <f>LOOKUP(H8,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="5">
-        <f>LOOKUP(D8,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="J8" s="5">
+        <f>LOOKUP(K8,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="5">
-        <f>LOOKUP(G8,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+      <c r="K8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="5">
+        <v>300</v>
+      </c>
+      <c r="M8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="5">
-        <f>LOOKUP(J8,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>6</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="5">
-        <v>300</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>19</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="O8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="5">
         <v>5</v>
       </c>
-      <c r="P8" s="5">
-        <f>LOOKUP(Q8,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q8" s="5">
+        <f>LOOKUP(R8,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5">
+      <c r="R8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="31.5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9">
+        <f>LOOKUP(C9,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="5">
+        <f>LOOKUP(E9,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5">
+        <f>LOOKUP(H9,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="5">
-        <f>LOOKUP(D9,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="5">
-        <f>LOOKUP(G9,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+      <c r="J9" s="5">
+        <f>LOOKUP(K9,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="5">
+        <v>199</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>7</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>LOOKUP(R9,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="5">
-        <f>LOOKUP(J9,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>5</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="5">
-        <v>199</v>
-      </c>
-      <c r="L9" s="5">
-        <v>5</v>
-      </c>
-      <c r="M9" s="5">
-        <v>7</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="5">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5">
-        <f>LOOKUP(Q9,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="31.5">
+      <c r="R9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="31.5">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10">
+        <f>LOOKUP(C10,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>23</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5">
+        <f>LOOKUP(E10,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="5">
+        <f>LOOKUP(H10,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="5">
-        <f>LOOKUP(D10,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="5">
-        <f>LOOKUP(G10,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+      <c r="J10" s="5">
+        <f>LOOKUP(K10,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>7</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="5">
+        <v>234</v>
+      </c>
+      <c r="M10" s="5">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="5">
-        <f>LOOKUP(J10,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>7</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="5">
-        <v>234</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>17</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="O10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="5">
         <v>10</v>
       </c>
-      <c r="P10" s="5">
-        <f>LOOKUP(Q10,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="31.5">
+      <c r="Q10" s="5">
+        <f>LOOKUP(R10,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="31.5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="5">
-        <f>LOOKUP(D11,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B11">
+        <f>LOOKUP(C11,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="5">
+        <f>LOOKUP(E11,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="5">
-        <f>LOOKUP(G11,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="5">
+        <f>LOOKUP(H11,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="5">
-        <f>LOOKUP(J11,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LOOKUP(K11,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="K11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="5">
         <v>170</v>
-      </c>
-      <c r="L11" s="5">
-        <v>5</v>
       </c>
       <c r="M11" s="5">
         <v>5</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="5">
         <v>5</v>
       </c>
+      <c r="O11" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="P11" s="5">
-        <f>LOOKUP(Q11,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5">
+        <f>LOOKUP(R11,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="31.5">
+      <c r="R11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="31.5">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="5">
-        <f>LOOKUP(D12,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>81</v>
+      <c r="B12">
+        <f>LOOKUP(C12,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5">
+        <f>LOOKUP(E12,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="5">
-        <f>LOOKUP(G12,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>77</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="5">
+        <f>LOOKUP(H12,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="5">
-        <f>LOOKUP(J12,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LOOKUP(K12,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="K12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="5">
         <v>600</v>
-      </c>
-      <c r="L12" s="5">
-        <v>5</v>
       </c>
       <c r="M12" s="5">
         <v>5</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="5">
+      <c r="N12" s="5">
+        <v>5</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="P12" s="5">
-        <f>LOOKUP(Q12,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="31.5">
+      <c r="Q12" s="5">
+        <f>LOOKUP(R12,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="31.5">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="5">
-        <f>LOOKUP(D13,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>81</v>
+      <c r="B13">
+        <f>LOOKUP(C13,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5">
+        <f>LOOKUP(E13,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="5">
-        <f>LOOKUP(G13,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>77</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="5">
+        <f>LOOKUP(H13,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="5">
-        <f>LOOKUP(J13,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LOOKUP(K13,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="K13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="5">
         <v>300</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>15</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="5">
+      <c r="O13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="5">
         <v>15</v>
       </c>
-      <c r="P13" s="5">
-        <f>LOOKUP(Q13,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="31.5">
+      <c r="Q13" s="5">
+        <f>LOOKUP(R13,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="31.5">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="5">
-        <f>LOOKUP(D14,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B14">
+        <f>LOOKUP(C14,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5">
+        <f>LOOKUP(E14,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="5">
-        <f>LOOKUP(G14,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>55</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="5">
+        <f>LOOKUP(H14,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>2</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="5">
-        <f>LOOKUP(J14,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="5">
+        <v>44</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LOOKUP(K14,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="5">
         <v>4100</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>4</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>9</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="O14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="5">
         <v>30</v>
       </c>
-      <c r="P14" s="5">
-        <f>LOOKUP(Q14,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="31.5">
+      <c r="Q14" s="5">
+        <f>LOOKUP(R14,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="31.5">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="5">
-        <f>LOOKUP(D15,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B15">
+        <f>LOOKUP(C15,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="5">
+        <f>LOOKUP(E15,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>5</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="5">
-        <f>LOOKUP(G15,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="5">
+        <f>LOOKUP(H15,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" s="5">
-        <f>LOOKUP(J15,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>51</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LOOKUP(K15,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="K15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="5">
         <v>385</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>17</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="O15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="5">
         <v>10</v>
       </c>
-      <c r="P15" s="5">
-        <f>LOOKUP(Q15,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q15" s="5">
+        <f>LOOKUP(R15,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="31.5">
+      <c r="R15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="31.5">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="5">
-        <f>LOOKUP(D16,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B16">
+        <f>LOOKUP(C16,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>24</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="5">
+        <f>LOOKUP(E16,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="5">
-        <f>LOOKUP(G16,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="5">
+        <f>LOOKUP(H16,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>2</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I16" s="5">
-        <f>LOOKUP(J16,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="5">
+        <v>44</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LOOKUP(K16,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="5">
         <v>280</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>3</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>8</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="O16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="5">
         <v>15</v>
       </c>
-      <c r="P16" s="5">
-        <f>LOOKUP(Q16,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q16" s="5">
+        <f>LOOKUP(R16,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="31.5">
+      <c r="R16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="31.5">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="5">
-        <f>LOOKUP(D17,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B17">
+        <f>LOOKUP(C17,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>26</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5">
+        <f>LOOKUP(E17,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="5">
-        <f>LOOKUP(G17,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>55</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="5">
+        <f>LOOKUP(H17,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="5">
-        <f>LOOKUP(J17,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LOOKUP(K17,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="K17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="5">
         <v>1700</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>4</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>9</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="O17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="5">
         <v>25</v>
       </c>
-      <c r="P17" s="5">
-        <f>LOOKUP(Q17,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="31.5">
+      <c r="Q17" s="5">
+        <f>LOOKUP(R17,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="31.5">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="5">
-        <f>LOOKUP(D18,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>81</v>
+      <c r="B18">
+        <f>LOOKUP(C18,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>14</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5">
+        <f>LOOKUP(E18,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="5">
-        <f>LOOKUP(G18,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>77</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="5">
+        <f>LOOKUP(H18,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="5">
-        <f>LOOKUP(J18,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LOOKUP(K18,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="K18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="5">
         <v>510</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>17</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="O18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="5">
         <v>5</v>
       </c>
-      <c r="P18" s="5">
-        <f>LOOKUP(Q18,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q18" s="5">
+        <f>LOOKUP(R18,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="31.5">
+      <c r="R18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="31.5">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="5">
-        <f>LOOKUP(D19,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>81</v>
+      <c r="B19">
+        <f>LOOKUP(C19,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>22</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="5">
+        <f>LOOKUP(E19,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="5">
-        <f>LOOKUP(G19,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>77</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LOOKUP(H19,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="5">
-        <f>LOOKUP(J19,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LOOKUP(K19,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="K19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="5">
         <v>510</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>17</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="O19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="5">
         <v>5</v>
       </c>
-      <c r="P19" s="5">
-        <f>LOOKUP(Q19,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q19" s="5">
+        <f>LOOKUP(R19,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="31.5">
+      <c r="R19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="31.5">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="5">
-        <f>LOOKUP(D20,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B20">
+        <f>LOOKUP(C20,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>13</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="5">
+        <f>LOOKUP(E20,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="5">
-        <f>LOOKUP(G20,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>55</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="5">
+        <f>LOOKUP(H20,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="5">
-        <f>LOOKUP(J20,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LOOKUP(K20,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>8</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="K20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="5">
         <v>2190</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>4</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>7</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="O20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="5">
         <v>30</v>
       </c>
-      <c r="P20" s="5">
-        <f>LOOKUP(Q20,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="31.5">
+      <c r="Q20" s="5">
+        <f>LOOKUP(R20,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="31.5">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="5">
-        <f>LOOKUP(D21,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B21">
+        <f>LOOKUP(C21,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>17</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5">
+        <f>LOOKUP(E21,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="5">
-        <f>LOOKUP(G21,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="5">
+        <f>LOOKUP(H21,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="5">
-        <f>LOOKUP(J21,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LOOKUP(K21,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="K21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="5">
         <v>177</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <v>3</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>15</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="O21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="5">
         <v>15</v>
       </c>
-      <c r="P21" s="5">
-        <f>LOOKUP(Q21,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q21" s="5">
+        <f>LOOKUP(R21,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="31.5">
+      <c r="R21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="31.5">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="5">
-        <f>LOOKUP(D22,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B22">
+        <f>LOOKUP(C22,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>19</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="5">
+        <f>LOOKUP(E22,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>6</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="5">
-        <f>LOOKUP(G22,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>72</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="5">
+        <f>LOOKUP(H22,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I22" s="5">
-        <f>LOOKUP(J22,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LOOKUP(K22,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="K22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="5">
         <v>100</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>4</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>21</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O22" s="5">
+      <c r="O22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="5">
         <v>5</v>
       </c>
-      <c r="P22" s="5">
-        <f>LOOKUP(Q22,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q22" s="5">
+        <f>LOOKUP(R22,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="31.5">
+      <c r="R22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="31.5">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="5">
-        <f>LOOKUP(D23,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>81</v>
+      <c r="B23">
+        <f>LOOKUP(C23,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>27</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5">
+        <f>LOOKUP(E23,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="5">
-        <f>LOOKUP(G23,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="5">
+        <f>LOOKUP(H23,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="5">
-        <f>LOOKUP(J23,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LOOKUP(K23,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="K23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="5">
         <v>640</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>5</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>4</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="5">
+      <c r="O23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="5">
         <v>5</v>
       </c>
-      <c r="P23" s="5">
-        <f>LOOKUP(Q23,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="31.5">
+      <c r="Q23" s="5">
+        <f>LOOKUP(R23,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="31.5">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="5">
-        <f>LOOKUP(D24,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B24">
+        <f>LOOKUP(C24,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>20</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="5">
+        <f>LOOKUP(E24,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="5">
-        <f>LOOKUP(G24,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>116</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="5">
+        <f>LOOKUP(H24,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="5">
-        <f>LOOKUP(J24,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LOOKUP(K24,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>13</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="K24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="5">
         <v>800</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <v>2</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>17</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="O24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="5">
         <v>25</v>
       </c>
-      <c r="P24" s="5">
-        <f>LOOKUP(Q24,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q24" s="5">
+        <f>LOOKUP(R24,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="31.5">
+      <c r="R24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="31.5">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="5">
-        <f>LOOKUP(D25,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B25">
+        <f>LOOKUP(C25,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>8</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="5">
+        <f>LOOKUP(E25,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>2</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="5">
-        <f>LOOKUP(G25,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>120</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="5">
+        <f>LOOKUP(H25,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="5">
-        <f>LOOKUP(J25,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LOOKUP(K25,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="K25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="5">
         <v>3500</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M25" s="5">
         <v>5</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>3</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="O25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="5">
         <v>30</v>
       </c>
-      <c r="P25" s="5">
-        <f>LOOKUP(Q25,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q25" s="5">
+        <f>LOOKUP(R25,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="31.5">
+      <c r="R25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="31.5">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="5">
-        <f>LOOKUP(D26,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B26">
+        <f>LOOKUP(C26,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="5">
+        <f>LOOKUP(E26,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>5</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="5">
-        <f>LOOKUP(G26,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="5">
+        <f>LOOKUP(H26,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I26" s="5">
-        <f>LOOKUP(J26,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>51</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LOOKUP(K26,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="K26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="5">
         <v>400</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M26" s="5">
         <v>4</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>5</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="5">
+      <c r="O26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="5">
         <v>15</v>
       </c>
-      <c r="P26" s="5">
-        <f>LOOKUP(Q26,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q26" s="5">
+        <f>LOOKUP(R26,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q26" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="31.5">
+      <c r="R26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="31.5">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="5">
-        <f>LOOKUP(D27,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B27">
+        <f>LOOKUP(C27,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>18</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="5">
+        <f>LOOKUP(E27,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>5</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="5">
-        <f>LOOKUP(G27,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="5">
+        <f>LOOKUP(H27,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I27" s="5">
-        <f>LOOKUP(J27,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>51</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LOOKUP(K27,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>10</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="K27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="5">
         <v>292</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M27" s="5">
         <v>3</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>13</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="O27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="5">
         <v>25</v>
       </c>
-      <c r="P27" s="5">
-        <f>LOOKUP(Q27,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="31.5">
+      <c r="Q27" s="5">
+        <f>LOOKUP(R27,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="31.5">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="5">
-        <f>LOOKUP(D28,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B28">
+        <f>LOOKUP(C28,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>2</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="5">
+        <f>LOOKUP(E28,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>6</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="5">
-        <f>LOOKUP(G28,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>72</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="5">
+        <f>LOOKUP(H28,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="5">
-        <f>LOOKUP(J28,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LOOKUP(K28,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>11</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="K28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="5">
         <v>600</v>
       </c>
-      <c r="L28" s="5">
+      <c r="M28" s="5">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>16</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="O28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" s="5">
         <v>15</v>
       </c>
-      <c r="P28" s="5">
-        <f>LOOKUP(Q28,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="31.5">
+      <c r="Q28" s="5">
+        <f>LOOKUP(R28,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="31.5">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="5">
-        <f>LOOKUP(D29,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B29">
+        <f>LOOKUP(C29,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>7</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="5">
+        <f>LOOKUP(E29,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="5">
-        <f>LOOKUP(G29,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>40</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="5">
+        <f>LOOKUP(H29,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="5">
-        <f>LOOKUP(J29,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LOOKUP(K29,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>9</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="K29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="5">
         <v>140</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <v>3</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>19</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="O29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" s="5">
         <v>20</v>
       </c>
-      <c r="P29" s="5">
-        <f>LOOKUP(Q29,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q29" s="5">
+        <f>LOOKUP(R29,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q29" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="31.5">
+      <c r="R29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="31.5">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="5">
-        <f>LOOKUP(D30,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B30">
+        <f>LOOKUP(C30,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>21</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="5">
+        <f>LOOKUP(E30,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>3</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="5">
-        <f>LOOKUP(G30,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>40</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="5">
+        <f>LOOKUP(H30,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" s="5">
-        <f>LOOKUP(J30,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LOOKUP(K30,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>9</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="K30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="5">
         <v>50</v>
       </c>
-      <c r="L30" s="5">
+      <c r="M30" s="5">
         <v>4</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N30" s="5">
         <v>6</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" s="5">
+      <c r="O30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="5">
         <v>5</v>
       </c>
-      <c r="P30" s="5">
-        <f>LOOKUP(Q30,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+      <c r="Q30" s="5">
+        <f>LOOKUP(R30,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="31.5">
+      <c r="R30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="31.5">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="5">
-        <f>LOOKUP(D31,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
+      <c r="B31">
+        <f>LOOKUP(C31,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>28</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="5">
+        <f>LOOKUP(E31,nameproduct!$B$2:$B$9,nameproduct!$A$2:$A$9)</f>
         <v>7</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="5">
-        <f>LOOKUP(G31,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
+        <v>55</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="5">
+        <f>LOOKUP(H31,categoryproduct!$B$2:$B$4,categoryproduct!$A$2:$A$4)</f>
         <v>3</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I31" s="5">
-        <f>LOOKUP(J31,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
+        <v>61</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LOOKUP(K31,manufactyre!$B$2:$B$14,manufactyre!$A$2:$A$14)</f>
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="K31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="5">
         <v>600</v>
       </c>
-      <c r="L31" s="5">
+      <c r="M31" s="5">
         <v>5</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>15</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="O31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="5">
         <v>15</v>
       </c>
-      <c r="P31" s="5">
-        <f>LOOKUP(Q31,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>47</v>
+      <c r="Q31" s="5">
+        <f>LOOKUP(R31,deliveri!$B$2:$B$3,deliveri!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4648,20 +5170,286 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="31.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B31">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="31.5">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4669,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4677,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4688,12 +5476,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4703,10 +5491,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4714,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4722,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -4730,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4741,12 +5529,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4756,10 +5544,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4767,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4775,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -4783,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -4791,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -4799,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -4807,7 +5595,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
@@ -4815,7 +5603,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -4823,7 +5611,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4834,12 +5622,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4849,10 +5637,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
@@ -4860,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
@@ -4868,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -4876,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
@@ -4884,7 +5672,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -4892,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -4900,7 +5688,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
@@ -4908,7 +5696,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -4916,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -4924,7 +5712,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
@@ -4932,7 +5720,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -4940,7 +5728,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
@@ -4948,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
@@ -4956,7 +5744,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4967,12 +5755,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A2" sqref="A2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4986,28 +5774,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
         <v>217</v>
       </c>
-      <c r="D1" t="s">
-        <v>221</v>
-      </c>
       <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
@@ -5026,14 +5814,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F2" s="9">
         <f>LOOKUP(G2,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>28</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -5055,14 +5843,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F3" s="9">
         <f>LOOKUP(G3,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>25</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H3" s="9">
         <v>30</v>
@@ -5084,14 +5872,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F4" s="9">
         <f>LOOKUP(G4,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>7</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H4" s="9">
         <v>43</v>
@@ -5113,14 +5901,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="9">
         <f>LOOKUP(G5,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>23</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H5" s="9">
         <v>25</v>
@@ -5142,14 +5930,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F6" s="9">
         <f>LOOKUP(G6,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>30</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H6" s="9">
         <v>40</v>
@@ -5171,14 +5959,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="9">
         <f>LOOKUP(G7,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>16</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H7" s="9">
         <v>49</v>
@@ -5200,14 +5988,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F8" s="9">
         <f>LOOKUP(G8,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>17</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H8" s="9">
         <v>46</v>
@@ -5229,14 +6017,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F9" s="9">
         <f>LOOKUP(G9,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H9" s="9">
         <v>50</v>
@@ -5258,14 +6046,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F10" s="9">
         <f>LOOKUP(G10,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>14</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H10" s="9">
         <v>19</v>
@@ -5287,14 +6075,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F11" s="9">
         <f>LOOKUP(G11,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>15</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H11" s="9">
         <v>19</v>
@@ -5316,14 +6104,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F12" s="9">
         <f>LOOKUP(G12,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>20</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H12" s="9">
         <v>4</v>
@@ -5345,14 +6133,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F13" s="9">
         <f>LOOKUP(G13,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>8</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H13" s="9">
         <v>26</v>
@@ -5374,14 +6162,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14" s="9">
         <f>LOOKUP(G14,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H14" s="9">
         <v>3</v>
@@ -5403,14 +6191,14 @@
         <v>1</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F15" s="9">
         <f>LOOKUP(G15,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>4</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H15" s="9">
         <v>28</v>
@@ -5432,14 +6220,14 @@
         <v>1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F16" s="9">
         <f>LOOKUP(G16,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>12</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H16" s="9">
         <v>30</v>
@@ -5461,14 +6249,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F17" s="9">
         <f>LOOKUP(G17,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>26</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H17" s="9">
         <v>43</v>
@@ -5490,14 +6278,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F18" s="9">
         <f>LOOKUP(G18,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>29</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H18" s="9">
         <v>50</v>
@@ -5519,14 +6307,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F19" s="9">
         <f>LOOKUP(G19,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>7</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H19" s="9">
         <v>20</v>
@@ -5548,17 +6336,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F20" s="9">
         <f>LOOKUP(G20,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75">
@@ -5577,14 +6365,14 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F21" s="9">
         <f>LOOKUP(G21,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>5</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H21" s="9">
         <v>32</v>
@@ -5606,14 +6394,14 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F22" s="9">
         <f>LOOKUP(G22,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>9</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H22" s="9">
         <v>47</v>
@@ -5635,14 +6423,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F23" s="9">
         <f>LOOKUP(G23,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>21</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H23" s="9">
         <v>46</v>
@@ -5664,14 +6452,14 @@
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F24" s="9">
         <f>LOOKUP(G24,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>27</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H24" s="9">
         <v>8</v>
@@ -5693,14 +6481,14 @@
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F25" s="9">
         <f>LOOKUP(G25,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>7</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
@@ -5722,14 +6510,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F26" s="9">
         <f>LOOKUP(G26,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>24</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H26" s="9">
         <v>46</v>
@@ -5751,14 +6539,14 @@
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F27" s="9">
         <f>LOOKUP(G27,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>3</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H27" s="9">
         <v>41</v>
@@ -5780,14 +6568,14 @@
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F28" s="9">
         <f>LOOKUP(G28,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>22</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H28" s="9">
         <v>13</v>
@@ -5809,14 +6597,14 @@
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F29" s="9">
         <f>LOOKUP(G29,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>2</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H29" s="9">
         <v>32</v>
@@ -5838,14 +6626,14 @@
         <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F30" s="9">
         <f>LOOKUP(G30,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>18</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H30" s="9">
         <v>8</v>
@@ -5867,14 +6655,14 @@
         <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F31" s="9">
         <f>LOOKUP(G31,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>30</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H31" s="9">
         <v>24</v>
@@ -5896,14 +6684,14 @@
         <v>1</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F32" s="9">
         <f>LOOKUP(G32,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>19</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H32" s="9">
         <v>35</v>
@@ -5925,14 +6713,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F33" s="9">
         <f>LOOKUP(G33,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>9</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H33" s="9">
         <v>44</v>
@@ -5954,14 +6742,14 @@
         <v>1</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F34" s="9">
         <f>LOOKUP(G34,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>6</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H34" s="9">
         <v>44</v>
@@ -5983,14 +6771,14 @@
         <v>1</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F35" s="9">
         <f>LOOKUP(G35,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>13</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H35" s="9">
         <v>12</v>
@@ -6012,14 +6800,14 @@
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F36" s="9">
         <f>LOOKUP(G36,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>8</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H36" s="9">
         <v>17</v>
@@ -6041,14 +6829,14 @@
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F37" s="9">
         <f>LOOKUP(G37,street!$B$2:$B$31,street!$A$2:$A$31)</f>
         <v>10</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H37" s="9">
         <v>26</v>
@@ -6057,270 +6845,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B2:B31">
-    <sortCondition ref="B2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Import.xlsx
+++ b/Import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="242">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B37"/>
     </sheetView>
   </sheetViews>
@@ -2980,182 +2980,262 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2">
+        <f>LOOKUP(C2,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3">
+        <f>LOOKUP(C3,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4">
+        <f>LOOKUP(C4,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5">
+        <f>LOOKUP(C5,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6">
+        <f>LOOKUP(C6,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7">
+        <f>LOOKUP(C7,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8">
+        <f>LOOKUP(C8,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9">
+        <f>LOOKUP(C9,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10">
+        <f>LOOKUP(C10,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75">
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11">
+        <f>LOOKUP(C11,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12">
+        <f>LOOKUP(C12,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13">
+        <f>LOOKUP(C13,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14">
+        <f>LOOKUP(C14,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15">
+        <f>LOOKUP(C15,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16">
+        <f>LOOKUP(C16,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17">
+        <f>LOOKUP(C17,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18">
+        <f>LOOKUP(C18,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19">
+        <f>LOOKUP(C19,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20">
+        <f>LOOKUP(C20,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>5</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21">
+        <f>LOOKUP(C21,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3400,7 +3480,7 @@
       </c>
       <c r="B3">
         <f>LOOKUP(C3,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>47</v>
@@ -3461,7 +3541,7 @@
       </c>
       <c r="B4">
         <f>LOOKUP(C4,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>54</v>
@@ -3522,7 +3602,7 @@
       </c>
       <c r="B5">
         <f>LOOKUP(C5,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>59</v>
@@ -3583,7 +3663,7 @@
       </c>
       <c r="B6">
         <f>LOOKUP(C6,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>64</v>
@@ -3644,7 +3724,7 @@
       </c>
       <c r="B7">
         <f>LOOKUP(C7,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>67</v>
@@ -3705,7 +3785,7 @@
       </c>
       <c r="B8">
         <f>LOOKUP(C8,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>71</v>
@@ -3766,7 +3846,7 @@
       </c>
       <c r="B9">
         <f>LOOKUP(C9,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>76</v>
@@ -3827,7 +3907,7 @@
       </c>
       <c r="B10">
         <f>LOOKUP(C10,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>81</v>
@@ -3888,7 +3968,7 @@
       </c>
       <c r="B11">
         <f>LOOKUP(C11,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>86</v>
@@ -3949,7 +4029,7 @@
       </c>
       <c r="B12">
         <f>LOOKUP(C12,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>90</v>
@@ -4010,7 +4090,7 @@
       </c>
       <c r="B13">
         <f>LOOKUP(C13,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>92</v>
@@ -4071,7 +4151,7 @@
       </c>
       <c r="B14">
         <f>LOOKUP(C14,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>94</v>
@@ -4132,7 +4212,7 @@
       </c>
       <c r="B15">
         <f>LOOKUP(C15,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>97</v>
@@ -4193,7 +4273,7 @@
       </c>
       <c r="B16">
         <f>LOOKUP(C16,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>99</v>
@@ -4254,7 +4334,7 @@
       </c>
       <c r="B17">
         <f>LOOKUP(C17,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>101</v>
@@ -4315,7 +4395,7 @@
       </c>
       <c r="B18">
         <f>LOOKUP(C18,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>103</v>
@@ -4376,7 +4456,7 @@
       </c>
       <c r="B19">
         <f>LOOKUP(C19,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>105</v>
@@ -4437,7 +4517,7 @@
       </c>
       <c r="B20">
         <f>LOOKUP(C20,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>107</v>
@@ -4498,7 +4578,7 @@
       </c>
       <c r="B21">
         <f>LOOKUP(C21,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>109</v>
@@ -4559,7 +4639,7 @@
       </c>
       <c r="B22">
         <f>LOOKUP(C22,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>111</v>
@@ -4620,7 +4700,7 @@
       </c>
       <c r="B23">
         <f>LOOKUP(C23,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>113</v>
@@ -4681,7 +4761,7 @@
       </c>
       <c r="B24">
         <f>LOOKUP(C24,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>115</v>
@@ -4742,7 +4822,7 @@
       </c>
       <c r="B25">
         <f>LOOKUP(C25,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>119</v>
@@ -4803,7 +4883,7 @@
       </c>
       <c r="B26">
         <f>LOOKUP(C26,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>122</v>
@@ -4864,7 +4944,7 @@
       </c>
       <c r="B27">
         <f>LOOKUP(C27,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>124</v>
@@ -4925,7 +5005,7 @@
       </c>
       <c r="B28">
         <f>LOOKUP(C28,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>126</v>
@@ -4986,7 +5066,7 @@
       </c>
       <c r="B29">
         <f>LOOKUP(C29,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>129</v>
@@ -5047,7 +5127,7 @@
       </c>
       <c r="B30">
         <f>LOOKUP(C30,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>131</v>
@@ -5108,7 +5188,7 @@
       </c>
       <c r="B31">
         <f>LOOKUP(C31,Articul!$B$2:$B$31,Articul!$A$2:$A$31)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>133</v>
@@ -5170,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5190,80 +5270,80 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>122</v>
+      <c r="B2" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>126</v>
+      <c r="B3" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>90</v>
+      <c r="B4" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>94</v>
+      <c r="B5" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>76</v>
+      <c r="B6" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>86</v>
+      <c r="B7" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>129</v>
+      <c r="B8" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>119</v>
+      <c r="B9" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>64</v>
+      <c r="B10" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>54</v>
+      <c r="B11" s="7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -5271,7 +5351,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
@@ -5279,7 +5359,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75">
@@ -5287,7 +5367,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75">
@@ -5295,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75">
@@ -5303,7 +5383,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
@@ -5311,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
@@ -5319,15 +5399,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75">
@@ -5335,7 +5415,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
@@ -5343,7 +5423,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
@@ -5351,7 +5431,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
@@ -5359,7 +5439,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75">
@@ -5367,7 +5447,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75">
@@ -5375,7 +5455,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75">
@@ -5383,7 +5463,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75">
@@ -5391,7 +5471,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75">
@@ -5399,7 +5479,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31.5">
@@ -5407,7 +5487,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75">
@@ -5415,7 +5495,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75">
@@ -5423,11 +5503,91 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="31.5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75">
+      <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B31">
+  <sortState ref="B2:B41">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
